--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_instantaneo.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_instantaneo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas etiquetado nueva versión con desplegable ABCDEF\Pnatillas sin etiquetas desplegables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908E47F4-F14E-44B4-B25F-704656286768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0201A-D47B-4C0C-BA17-AF46E4EBED5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="40">
   <si>
     <t>Año</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable</t>
   </si>
   <si>
-    <t>Etiqueta de EE del equipo nuevo. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
     <t>Capacidad</t>
   </si>
   <si>
@@ -171,6 +168,12 @@
   </si>
   <si>
     <t>Capacidad (L)</t>
+  </si>
+  <si>
+    <t>Capacidad del calentador. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE del equipo nuevo.</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
   <dimension ref="A1:T312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>38</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>1</v>
@@ -860,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>31</v>
@@ -869,7 +872,7 @@
         <v>3</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" s="12" t="s">
         <v>31</v>
@@ -878,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>31</v>
@@ -887,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>31</v>
@@ -925,38 +928,40 @@
         <v>28</v>
       </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="C3" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="D3" s="18"/>
       <c r="E3" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>27</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>27</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>27</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="17" t="s">
         <v>27</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="T3" s="17" t="s">
         <v>27</v>
@@ -971,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="26">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_BAU,2,)</f>
@@ -17340,7 +17345,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+3QQtcU3CbQbwawa1HvBVU8Onc8a8FZWlGNkBs0MIi2QzgDHWE8elwUXKWlUgC0/aE/xs6aIxK68Apb+yy6E9g==" saltValue="iStxb/PF/sE62hQ9qbxjfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="lULtr0xFoKdJTGX6/2OzxHC7zCt8boH5m3RH+hRUYcZfJivkukrG5KZoJGNlzSyK/Mj95yKqfED7ezs7vq60jQ==" saltValue="DGZTgOClO6Xirlwe3OL6iA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:T2"/>
   </mergeCells>
@@ -17448,10 +17453,10 @@
         <v>4</v>
       </c>
       <c r="M7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N7" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -17477,7 +17482,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N8" s="9">
         <v>1</v>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_instantaneo.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_Calentadores_agua_instantaneo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\Plantillas etiquetado nueva versión con desplegable ABCDEF\Pnatillas sin etiquetas desplegables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC0201A-D47B-4C0C-BA17-AF46E4EBED5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAA848A-DAED-4043-86EA-5872B2B64F7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="52">
   <si>
     <t>Año</t>
   </si>
@@ -137,22 +137,10 @@
     <t>Diciembre</t>
   </si>
   <si>
-    <t>Número de unidades de este equipo. Inserte su dato.</t>
-  </si>
-  <si>
-    <t>Año en que se compró el equipo. Seleccione de la lista desplegable.</t>
-  </si>
-  <si>
     <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
     <t>Etiqueta de EE BAU</t>
-  </si>
-  <si>
-    <t>Etiqueta de EE Acción</t>
-  </si>
-  <si>
-    <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable</t>
   </si>
   <si>
     <t>Capacidad</t>
@@ -173,7 +161,55 @@
     <t>Capacidad del calentador. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Etiqueta de EE del equipo nuevo.</t>
+    <t>Año de registro. Seleccione de la lista desplegable.</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE de linea base. Seleccione de la lista desplegable</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (A)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (B)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (C)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (D)</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE (E)</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo A.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo B.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo C.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo D.</t>
+  </si>
+  <si>
+    <t>Etiqueta de eficiencia energética tipo E.</t>
+  </si>
+  <si>
+    <t>Número de calentadores instantáneo y acumulación con etiqueta A. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Número de calentadores instantáneo y acumulación con etiqueta B. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Número de calentadores instantáneo y acumulación con etiqueta C. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Número de calentadores instantáneo y acumulación con etiqueta D. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
+  </si>
+  <si>
+    <t>Número de calentadores instantáneo y acumulación con etiqueta E. En caso no se cuente con equipos de esta etiqueta colocar cero (0). Inserte su dato.</t>
   </si>
 </sst>
 </file>
@@ -809,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2029263-33DE-46C6-ADE8-A69CDB86AC1C}">
   <dimension ref="A1:T312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,20 +857,20 @@
     <col min="4" max="4" width="10.85546875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="28.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="21.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="14" max="14" width="33" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="16" max="16" width="21" customWidth="1"/>
+    <col min="17" max="17" width="34.5703125" customWidth="1"/>
     <col min="18" max="18" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="22.140625" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" customWidth="1"/>
+    <col min="20" max="20" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -842,58 +878,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>37</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>31</v>
       </c>
       <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="N1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="16" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="T1" s="16" t="s">
         <v>3</v>
@@ -901,7 +937,7 @@
     </row>
     <row r="2" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="28"/>
       <c r="C2" s="28"/>
@@ -925,46 +961,46 @@
     </row>
     <row r="3" spans="1:20" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -976,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4" s="26">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_BAU,2,)</f>
@@ -17345,7 +17381,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="lULtr0xFoKdJTGX6/2OzxHC7zCt8boH5m3RH+hRUYcZfJivkukrG5KZoJGNlzSyK/Mj95yKqfED7ezs7vq60jQ==" saltValue="DGZTgOClO6Xirlwe3OL6iA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6YqsiICGH5aKMdjyoV4sSS8cmjJGaXoFKt9I2zP3aTyTGjbjO7tUXVn/T+laUX1rGjkDwVjTHEQ1Qkwh2ZA/6g==" saltValue="pf4n093KBQmBeK0gnGyK8A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:T2"/>
   </mergeCells>
@@ -17453,10 +17489,10 @@
         <v>4</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -17482,7 +17518,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N8" s="9">
         <v>1</v>
